--- a/doc/excel/培训/[sample_cetUpperTrain_addType3]参训人员名单.xlsx
+++ b/doc/excel/培训/[sample_cetUpperTrain_addType3]参训人员名单.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IdeaProjects\owip\doc\excel\培训\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\项目相关\功能\1、零碎需求\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EB0EEFA-4826-4D24-A708-93F5671AE98B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="1230" yWindow="3045" windowWidth="20025" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,50 +19,90 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>min liaom</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>从“培训综合管理-通用设置-参训人员类型”中选择填写</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>如果参数设置中没有，则保存为“其他”类型。</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>时任单位及职务</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>李安福</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数学学院院长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>95102</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支部书记，双肩挑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>参训人员工号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>数学学院院长</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否双肩挑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否支部书记</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20200505001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>参训人员姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>李四</t>
+    <t>参训人员身份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、参训人员身份请按照系统已有的参训人员身份进行填写，当有多个身份时，用逗号隔开。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -95,6 +136,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
@@ -105,6 +154,20 @@
     <font>
       <b/>
       <sz val="12"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF393939"/>
+      <name val="Open Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -133,7 +196,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -155,17 +218,23 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -480,11 +549,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -498,114 +567,134 @@
   <sheetData>
     <row r="1" spans="1:10" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="E1" s="2"/>
     </row>
     <row r="2" spans="1:10" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D4" s="9"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="10"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
+      <c r="B5" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
     </row>
   </sheetData>
   <dataConsolidate/>
+  <mergeCells count="1">
+    <mergeCell ref="B5:E12"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/doc/excel/培训/[sample_cetUpperTrain_addType3]参训人员名单.xlsx
+++ b/doc/excel/培训/[sample_cetUpperTrain_addType3]参训人员名单.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\项目相关\功能\1、零碎需求\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IdeaProjects\owip\doc\excel\培训\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EB0EEFA-4826-4D24-A708-93F5671AE98B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1230" yWindow="3045" windowWidth="20025" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1230" yWindow="3045" windowWidth="20025" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,46 +18,6 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>min liaom</author>
-  </authors>
-  <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>从“培训综合管理-通用设置-参训人员类型”中选择填写</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>如果参数设置中没有，则保存为“其他”类型。</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
@@ -101,8 +60,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -134,14 +93,6 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -218,19 +169,19 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -549,14 +500,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="2" width="17.875" style="6" customWidth="1"/>
     <col min="3" max="3" width="19.75" style="6" customWidth="1"/>
@@ -565,7 +516,7 @@
     <col min="6" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="4" customFormat="1" ht="30.75" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
@@ -580,7 +531,7 @@
       </c>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="33.75" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
@@ -594,10 +545,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10">
       <c r="A3" s="10"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10">
       <c r="B5" s="11" t="s">
         <v>8</v>
       </c>
@@ -610,7 +561,7 @@
       <c r="I5" s="9"/>
       <c r="J5" s="9"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10">
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
@@ -621,7 +572,7 @@
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10">
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
@@ -632,7 +583,7 @@
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10">
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
@@ -643,7 +594,7 @@
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10">
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
@@ -654,7 +605,7 @@
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10">
       <c r="B10" s="12"/>
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
@@ -665,7 +616,7 @@
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10">
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
@@ -676,7 +627,7 @@
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10">
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>
@@ -695,6 +646,5 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>